--- a/CHGG_Model.xlsx
+++ b/CHGG_Model.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Equity Research\Models\Consumer Discretionary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{167AB02E-1CC9-4EFB-8B20-3D4724E2E298}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C840BE23-CD62-4E25-AC95-8C5F153A6731}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29040" yWindow="1035" windowWidth="21495" windowHeight="11895" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -874,7 +874,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A3" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
@@ -1325,11 +1325,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DBCEEFA-A87E-4CB9-9D9E-EF1FF21F2567}">
   <dimension ref="A2:BG90"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="F41" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="P78" sqref="P78"/>
+      <selection pane="bottomRight" activeCell="N67" sqref="N67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>

--- a/CHGG_Model.xlsx
+++ b/CHGG_Model.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Equity Research\Models\Consumer Discretionary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C840BE23-CD62-4E25-AC95-8C5F153A6731}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A68F0B48-D161-4B55-B26A-63A94E8CD8E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -874,7 +874,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U32"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
@@ -1326,7 +1326,7 @@
   <dimension ref="A2:BG90"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="F41" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="F47" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="N67" sqref="N67"/>
@@ -6483,6 +6483,9 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="3.140625" customWidth="1"/>
+  </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/CHGG_Model.xlsx
+++ b/CHGG_Model.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Equity Research\Models\Consumer Discretionary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A68F0B48-D161-4B55-B26A-63A94E8CD8E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E663C2D-55F9-46B4-8B41-EAE25D7D4B68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -122,9 +122,6 @@
   </si>
   <si>
     <t>Skills and Other: Tutor Skills, Advertising Services, Print Textbooks and eTextbooks</t>
-  </si>
-  <si>
-    <t>Busuu, their language business is an acquisistion from 2021 ($436 million all-cash)</t>
   </si>
   <si>
     <t>MC</t>
@@ -391,9 +388,6 @@
     <t>Print and eTextbooks GT is non-material past '22</t>
   </si>
   <si>
-    <t xml:space="preserve">Personal Note: Should probably run an "if converted" model on the convertible notes. Could potentially delute any future earnings significantly for LT shareholders. </t>
-  </si>
-  <si>
     <t>Chegg has been a decent trade, and there is potential to be acquired in the future… That being said, there are a lot of short term headwinds that the business faces and I am not very confident in my model (first time valuing FCF instead of net income)</t>
   </si>
   <si>
@@ -403,10 +397,16 @@
     <t>Secondary reasoning for future re-entry: Chegg is still producing cash flows… If user decline/sales begins to level off, shares will bounce from their current levels</t>
   </si>
   <si>
-    <t>Managers have still not broken Busuu's business preformance from the primary Chegg offering on any of their financial filings</t>
-  </si>
-  <si>
     <t>Master</t>
+  </si>
+  <si>
+    <t>Busuu, their language business is an acquisition from 2021 ($436 million all-cash)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Personal Note: Should probably run an "if converted" model on the convertible notes. Could potentially dilute any future earnings significantly for LT shareholders. </t>
+  </si>
+  <si>
+    <t>Managers have still not broken Busuu's business performance from the primary Chegg offering on any of their financial filings</t>
   </si>
 </sst>
 </file>
@@ -874,7 +874,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U32"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
@@ -903,7 +905,7 @@
   <sheetData>
     <row r="1" spans="1:21" ht="15">
       <c r="A1" s="11" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="15">
@@ -1019,35 +1021,35 @@
     </row>
     <row r="5" spans="1:21">
       <c r="B5" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C5" s="3">
         <f>C3*C4</f>
         <v>157.50357</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G5" s="3">
         <f>G3*G4</f>
         <v>237.81995999999998</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K5" s="3">
         <f>K3*K4</f>
         <v>250.33679999999998</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O5" s="3">
         <f>O3*O4</f>
         <v>269.11205999999999</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="S5" s="3">
         <f>S3*S4</f>
@@ -1200,10 +1202,10 @@
       <c r="C9" s="3"/>
       <c r="G9" s="3"/>
       <c r="O9" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="S9" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:21" ht="15">
@@ -1214,7 +1216,7 @@
     </row>
     <row r="11" spans="1:21" ht="15">
       <c r="B11" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:21">
@@ -1224,58 +1226,58 @@
     </row>
     <row r="13" spans="1:21">
       <c r="B13" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:21">
       <c r="B14" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:21">
       <c r="B15" s="2" t="s">
-        <v>28</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:21">
       <c r="B16" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="2:6">
       <c r="B17" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="2:6" ht="15">
       <c r="B19" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F19" s="1"/>
     </row>
     <row r="20" spans="2:6">
       <c r="B20" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="2:6">
       <c r="B21" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="22" spans="2:6">
       <c r="B22" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="23" spans="2:6" ht="15">
       <c r="B23" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="24" spans="2:6" ht="15">
       <c r="B24" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="26" spans="2:6">
@@ -1285,32 +1287,32 @@
     </row>
     <row r="27" spans="2:6">
       <c r="B27" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="28" spans="2:6">
       <c r="B28" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="29" spans="2:6">
       <c r="B29" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="30" spans="2:6">
       <c r="B30" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="31" spans="2:6">
       <c r="B31" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="32" spans="2:6">
       <c r="C32" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -1325,7 +1327,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DBCEEFA-A87E-4CB9-9D9E-EF1FF21F2567}">
   <dimension ref="A2:BG90"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="F47" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -1383,13 +1385,13 @@
         <v>20</v>
       </c>
       <c r="O2" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="P2" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>85</v>
       </c>
       <c r="AA2" s="1">
         <v>2018</v>
@@ -2124,7 +2126,7 @@
     </row>
     <row r="12" spans="1:59">
       <c r="B12" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C12" s="3">
         <f t="shared" ref="C12:L12" si="7">C5</f>
@@ -2239,7 +2241,7 @@
     </row>
     <row r="13" spans="1:59">
       <c r="B13" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C13" s="3">
         <v>55.09</v>
@@ -2329,7 +2331,7 @@
     </row>
     <row r="14" spans="1:59">
       <c r="B14" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C14" s="3">
         <f t="shared" ref="C14:L14" si="11">C12-C13</f>
@@ -2444,7 +2446,7 @@
     </row>
     <row r="15" spans="1:59">
       <c r="B15" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C15" s="3">
         <v>52.42</v>
@@ -2534,7 +2536,7 @@
     </row>
     <row r="16" spans="1:59">
       <c r="B16" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C16" s="3">
         <v>42.5</v>
@@ -2624,7 +2626,7 @@
     </row>
     <row r="17" spans="2:49">
       <c r="B17" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C17" s="3">
         <v>46.87</v>
@@ -2714,7 +2716,7 @@
     </row>
     <row r="18" spans="2:49">
       <c r="B18" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C18" s="3">
         <v>0</v>
@@ -2802,7 +2804,7 @@
     </row>
     <row r="19" spans="2:49">
       <c r="B19" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C19" s="3">
         <f t="shared" ref="C19:L19" si="13">C14-SUM(C15:C18)</f>
@@ -2905,7 +2907,7 @@
     </row>
     <row r="20" spans="2:49">
       <c r="B20" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C20" s="3">
         <v>-1.6</v>
@@ -2995,7 +2997,7 @@
     </row>
     <row r="21" spans="2:49">
       <c r="B21" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C21" s="3">
         <v>6.18</v>
@@ -3085,7 +3087,7 @@
     </row>
     <row r="22" spans="2:49">
       <c r="B22" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C22" s="3">
         <f t="shared" ref="C22:M22" si="15">SUM(C19:C21)</f>
@@ -3188,7 +3190,7 @@
     </row>
     <row r="23" spans="2:49">
       <c r="B23" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C23" s="3">
         <v>-4.22</v>
@@ -3278,7 +3280,7 @@
     </row>
     <row r="24" spans="2:49">
       <c r="B24" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C24" s="3">
         <f t="shared" ref="C24:L24" si="16">C22+C23</f>
@@ -3439,7 +3441,7 @@
     </row>
     <row r="26" spans="2:49">
       <c r="B26" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C26" s="3">
         <f>C24/C25</f>
@@ -3542,7 +3544,7 @@
     </row>
     <row r="28" spans="2:49">
       <c r="B28" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C28" s="8">
         <f>C14/C12</f>
@@ -3645,7 +3647,7 @@
     </row>
     <row r="29" spans="2:49">
       <c r="B29" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C29" s="8">
         <f>C24/C12</f>
@@ -3748,7 +3750,7 @@
     </row>
     <row r="31" spans="2:49">
       <c r="B31" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
@@ -3811,7 +3813,7 @@
     </row>
     <row r="32" spans="2:49">
       <c r="B32" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
@@ -3874,7 +3876,7 @@
     </row>
     <row r="33" spans="2:32">
       <c r="B33" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
@@ -3937,7 +3939,7 @@
     </row>
     <row r="34" spans="2:32">
       <c r="B34" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
@@ -4000,7 +4002,7 @@
     </row>
     <row r="35" spans="2:32">
       <c r="B35" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
@@ -4063,7 +4065,7 @@
     </row>
     <row r="36" spans="2:32">
       <c r="B36" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
@@ -4126,7 +4128,7 @@
     </row>
     <row r="37" spans="2:32">
       <c r="B37" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
@@ -4189,7 +4191,7 @@
     </row>
     <row r="38" spans="2:32">
       <c r="B38" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
@@ -4252,7 +4254,7 @@
     </row>
     <row r="39" spans="2:32">
       <c r="B39" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
@@ -4315,7 +4317,7 @@
     </row>
     <row r="40" spans="2:32">
       <c r="B40" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
@@ -4378,7 +4380,7 @@
     </row>
     <row r="41" spans="2:32">
       <c r="B41" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
@@ -4441,7 +4443,7 @@
     </row>
     <row r="42" spans="2:32">
       <c r="B42" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
@@ -4504,7 +4506,7 @@
     </row>
     <row r="43" spans="2:32" ht="15">
       <c r="B43" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C43" s="3">
         <f t="shared" ref="C43:L43" si="22">SUM(C31:C42)</f>
@@ -4623,7 +4625,7 @@
     </row>
     <row r="45" spans="2:32">
       <c r="B45" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
@@ -4686,7 +4688,7 @@
     </row>
     <row r="46" spans="2:32">
       <c r="B46" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
@@ -4749,7 +4751,7 @@
     </row>
     <row r="47" spans="2:32">
       <c r="B47" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
@@ -4813,7 +4815,7 @@
     </row>
     <row r="48" spans="2:32">
       <c r="B48" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
@@ -4876,7 +4878,7 @@
     </row>
     <row r="49" spans="2:32">
       <c r="B49" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
@@ -4939,7 +4941,7 @@
     </row>
     <row r="50" spans="2:32">
       <c r="B50" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
@@ -5002,7 +5004,7 @@
     </row>
     <row r="51" spans="2:32">
       <c r="B51" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
@@ -5065,7 +5067,7 @@
     </row>
     <row r="52" spans="2:32" ht="15">
       <c r="B52" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C52" s="3">
         <f t="shared" ref="C52:L52" si="24">SUM(C45:C51)</f>
@@ -5151,7 +5153,7 @@
     </row>
     <row r="53" spans="2:32">
       <c r="B53" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
@@ -5214,7 +5216,7 @@
     </row>
     <row r="54" spans="2:32" ht="15">
       <c r="B54" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C54" s="3">
         <f t="shared" ref="C54" si="26">C52+C53</f>
@@ -5300,7 +5302,7 @@
     </row>
     <row r="56" spans="2:32">
       <c r="B56" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C56" s="3">
         <f t="shared" ref="C56:K56" si="38">C24</f>
@@ -5368,7 +5370,7 @@
     </row>
     <row r="57" spans="2:32">
       <c r="B57" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
@@ -5410,7 +5412,7 @@
     </row>
     <row r="58" spans="2:32">
       <c r="B58" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
@@ -5454,7 +5456,7 @@
     </row>
     <row r="59" spans="2:32">
       <c r="B59" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
@@ -5496,7 +5498,7 @@
     </row>
     <row r="60" spans="2:32">
       <c r="B60" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
@@ -5538,7 +5540,7 @@
     </row>
     <row r="61" spans="2:32">
       <c r="B61" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
@@ -5580,7 +5582,7 @@
     </row>
     <row r="62" spans="2:32">
       <c r="B62" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
@@ -5622,7 +5624,7 @@
     </row>
     <row r="63" spans="2:32">
       <c r="B63" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
@@ -5666,7 +5668,7 @@
     </row>
     <row r="64" spans="2:32">
       <c r="B64" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C64" s="3">
         <f t="shared" ref="C64:J64" si="39">SUM(C56:C63)</f>
@@ -5742,7 +5744,7 @@
     </row>
     <row r="66" spans="2:44">
       <c r="B66" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C66" s="3">
         <f t="shared" ref="C66:J66" si="40">C64</f>
@@ -5801,7 +5803,7 @@
     </row>
     <row r="67" spans="2:44">
       <c r="B67" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
@@ -5846,7 +5848,7 @@
     </row>
     <row r="68" spans="2:44" ht="15">
       <c r="B68" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C68" s="3">
         <f t="shared" ref="C68:N68" si="41">C66-C67</f>
@@ -6078,7 +6080,7 @@
     </row>
     <row r="70" spans="2:44">
       <c r="B70" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C70" s="3">
         <f t="shared" ref="C70:L70" si="58">C68/C69</f>
@@ -6172,7 +6174,7 @@
       <c r="L72" s="3"/>
       <c r="M72" s="3"/>
       <c r="N72" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O72" s="8">
         <v>0.1</v>
@@ -6198,7 +6200,7 @@
       <c r="L73" s="3"/>
       <c r="M73" s="3"/>
       <c r="N73" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O73" s="8">
         <v>-0.15</v>
@@ -6224,7 +6226,7 @@
       <c r="L74" s="3"/>
       <c r="M74" s="3"/>
       <c r="N74" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O74" s="9">
         <f>NPV(O72,N68:AR68)</f>
@@ -6251,7 +6253,7 @@
       <c r="L75" s="3"/>
       <c r="M75" s="3"/>
       <c r="N75" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O75" s="3">
         <f>M69</f>
@@ -6278,7 +6280,7 @@
       <c r="L76" s="3"/>
       <c r="M76" s="3"/>
       <c r="N76" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O76" s="9">
         <f>O74/O75</f>
@@ -6305,7 +6307,7 @@
       <c r="L77" s="3"/>
       <c r="M77" s="3"/>
       <c r="N77" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O77" s="9">
         <v>0.64</v>
